--- a/datacollection.xlsx
+++ b/datacollection.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,82 +440,17 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>100/08-12-066-25W5/00</t>
+          <t>100/03-36-065-25W5/00</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>102/07-12-066-25W5/00</t>
+          <t>100/07-36-065-25W5/00</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>102/02-12-066-25W5/00</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>100/07-36-065-25W5/00</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>102/10-36-065-25W5/00</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>100/03-36-065-25W5/00</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>102/13-06-068-24W5/00</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>103/13-06-068-24W5/00</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>102/14-06-068-24W5/00</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>100/14-06-068-24W5/00</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>103/14-06-068-24W5/00</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>100/16-01-068-25W5/00</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>100/08-01-068-25W5/00</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>100/01-18-068-24W5/00</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>100/09-01-068-25W5/00</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>100/16-14-068-25W5/00</t>
         </is>
       </c>
     </row>
@@ -526,52 +461,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="C2" t="n">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D2" t="n">
-        <v>51</v>
-      </c>
-      <c r="E2" t="n">
-        <v>52</v>
-      </c>
-      <c r="F2" t="n">
         <v>106</v>
-      </c>
-      <c r="G2" t="n">
-        <v>152</v>
-      </c>
-      <c r="H2" t="n">
-        <v>118</v>
-      </c>
-      <c r="I2" t="n">
-        <v>93</v>
-      </c>
-      <c r="J2" t="n">
-        <v>79</v>
-      </c>
-      <c r="K2" t="n">
-        <v>87</v>
-      </c>
-      <c r="L2" t="n">
-        <v>107</v>
-      </c>
-      <c r="M2" t="n">
-        <v>89</v>
-      </c>
-      <c r="N2" t="n">
-        <v>109</v>
-      </c>
-      <c r="O2" t="n">
-        <v>77</v>
-      </c>
-      <c r="P2" t="n">
-        <v>113</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>136</v>
       </c>
     </row>
     <row r="3">
@@ -581,52 +477,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>141</v>
+        <v>419</v>
       </c>
       <c r="C3" t="n">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="D3" t="n">
-        <v>183</v>
-      </c>
-      <c r="E3" t="n">
-        <v>238</v>
-      </c>
-      <c r="F3" t="n">
-        <v>372</v>
-      </c>
-      <c r="G3" t="n">
-        <v>418</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-      <c r="I3" t="n">
-        <v>63</v>
-      </c>
-      <c r="J3" t="n">
-        <v>280</v>
-      </c>
-      <c r="K3" t="n">
-        <v>241</v>
-      </c>
-      <c r="L3" t="n">
-        <v>178</v>
-      </c>
-      <c r="M3" t="n">
-        <v>138</v>
-      </c>
-      <c r="N3" t="n">
-        <v>41</v>
-      </c>
-      <c r="O3" t="n">
-        <v>41</v>
-      </c>
-      <c r="P3" t="n">
-        <v>41</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>25</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4">
@@ -636,52 +493,29 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44353.47916666666</v>
+        <v>44076.33333333334</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44413.625</v>
+        <v>44256.29166666666</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44311.54166666666</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>44256.29166666666</v>
-      </c>
-      <c r="F4" s="2" t="n">
         <v>44122.41666666666</v>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>44076.33333333334</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>44488.3125</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>44431.4375</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>44214.58333333334</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>44253.29166666666</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>44316.29166666666</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>44356.29166666666</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>44453.60416666666</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>44453.54166666666</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>44453.5</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>44469.52083333334</v>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Num of WS Jobs</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/datacollection.xlsx
+++ b/datacollection.xlsx
@@ -445,12 +445,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>102/10-36-065-25W5/00</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>100/07-36-065-25W5/00</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>102/10-36-065-25W5/00</t>
         </is>
       </c>
     </row>
@@ -464,10 +464,10 @@
         <v>152</v>
       </c>
       <c r="C2" t="n">
+        <v>106</v>
+      </c>
+      <c r="D2" t="n">
         <v>52</v>
-      </c>
-      <c r="D2" t="n">
-        <v>106</v>
       </c>
     </row>
     <row r="3">
@@ -480,10 +480,10 @@
         <v>419</v>
       </c>
       <c r="C3" t="n">
+        <v>373</v>
+      </c>
+      <c r="D3" t="n">
         <v>239</v>
-      </c>
-      <c r="D3" t="n">
-        <v>373</v>
       </c>
     </row>
     <row r="4">
@@ -496,10 +496,10 @@
         <v>44076.33333333334</v>
       </c>
       <c r="C4" s="2" t="n">
+        <v>44122.41666666666</v>
+      </c>
+      <c r="D4" s="2" t="n">
         <v>44256.29166666666</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>44122.41666666666</v>
       </c>
     </row>
     <row r="5">
@@ -512,10 +512,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
         <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/datacollection.xlsx
+++ b/datacollection.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:IQ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,82 +440,5244 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>102/10-36-065-25W5/00</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>100/03-36-065-25W5/00</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>102/10-36-065-25W5/00</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>100/07-36-065-25W5/00</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>100/04-02-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>102/16-03-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>103/13-06-068-24W5/00</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>100/14-14-065-25W5/00</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>100/16-12-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>102/07-22-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>100/02-34-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>100/06-19-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>100/05-34-068-25W5/00</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>102/15-36-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>100/14-17-065-24W5/00</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>102/01-31-065-23W5/00</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>100/10-16-067-24W5/02</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>100/12-26-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>102/02-19-066-24W5/00</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>100/06-17-065-24W5/00</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>100/12-10-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>100/04-18-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>100/05-34-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>100/12-16-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>100/09-20-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>100/11-05-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>100/16-31-065-24W5/00</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>102/02-27-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>100/03-08-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>100/13-14-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>102/13-23-068-25W5/00</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>100/08-06-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>103/14-06-068-24W5/00</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>100/15-23-066-25W5/03</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>100/15-12-067-25W5/00</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>100/14-23-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>102/06-06-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>102/09-22-068-25W5/00</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>100/14-01-067-25W5/00</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>102/15-31-065-24W5/00</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>100/15-01-067-25W5/00</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>100/08-17-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>100/02-25-065-25W5/00</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>100/09-01-067-25W5/00</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>102/03-17-065-24W5/00</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>102/16-28-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>100/06-23-067-25W5/00</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>100/06-22-068-25W5/02</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>100/03-20-065-24W5/00</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>102/11-25-065-25W5/00</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>100/09-22-068-25W5/00</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>100/07-24-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>100/05-20-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>100/02-22-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>100/12-23-066-24W5/00</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>100/04-20-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>100/12-18-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>102/14-02-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>100/06-25-065-25W5/00</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>100/10-36-065-25W5/02</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>100/16-02-068-25W5/00</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>102/08-01-067-25W5/00</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>100/08-02-067-25W5/00</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>100/16-36-065-25W5/00</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>100/16-16-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>102/10-13-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>102/15-06-068-24W5/00</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>100/09-18-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>100/12-05-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>102/04-09-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>100/14-16-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>100/01-16-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>100/05-15-065-25W5/02</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>102/16-02-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>102/04-02-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>100/06-33-065-25W5/00</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>100/09-26-066-25W5/02</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>100/02-12-067-25W5/00</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>102/03-30-066-23W5/00</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>100/05-18-068-24W5/00</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>102/16-06-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>100/13-08-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>100/04-17-067-23W5/00</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>100/12-30-066-24W5/00</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>102/02-12-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>100/08-36-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>100/14-06-068-24W5/00</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>100/15-35-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>100/12-17-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>100/06-20-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>103/02-09-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>100/15-02-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>100/04-34-068-25W5/00</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>100/10-13-067-25W5/00</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>100/16-08-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>100/11-10-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>100/16-24-067-25W5/00</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>100/10-15-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>103/16-03-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>100/04-05-067-23W5/00</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>100/15-18-068-24W5/00</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>100/07-20-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>100/01-08-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>100/09-01-068-25W5/00</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>100/04-30-066-23W5/00</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>100/02-06-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>100/04-23-065-25W5/00</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>100/11-18-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>102/12-23-066-24W5/00</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>100/08-13-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>103/11-25-065-25W5/00</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>102/05-18-066-24W5/00</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>100/16-05-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>102/10-15-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>100/10-25-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>100/11-24-068-25W5/00</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>100/14-19-066-24W5/00</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>100/10-31-066-24W5/00</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>100/14-35-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>100/11-26-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>100/12-34-068-25W5/00</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>102/09-34-065-25W5/00</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>100/01-27-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>100/14-18-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>102/16-31-065-24W5/02</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>100/09-18-065-25W5/00</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>100/04-19-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>100/09-02-067-25W5/00</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>100/01-24-067-25W5/00</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>100/04-08-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>100/10-07-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>102/14-17-065-24W5/00</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>100/15-18-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>100/05-05-068-24W5/02</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>100/04-19-066-24W5/00</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>100/01-13-068-25W5/00</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>102/11-05-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>100/09-04-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>100/02-36-065-25W5/00</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>100/08-07-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>100/03-23-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>100/02-19-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>102/10-21-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>100/11-15-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>100/16-36-064-25W5/00</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>102/15-25-065-25W5/00</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>100/01-18-068-24W5/00</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>100/13-15-067-24W5/02</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>100/12-07-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>100/07-18-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>102/14-06-068-24W5/00</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>102/06-20-065-24W5/00</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>102/07-12-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>100/02-09-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>102/10-26-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>100/04-01-066-24W5/02</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>100/04-02-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>100/13-27-068-25W5/00</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>100/07-14-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>100/08-25-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>103/16-28-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>100/13-05-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>102/14-14-065-25W5/00</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>100/10-06-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>100/15-31-065-24W5/00</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>100/11-12-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>100/12-32-067-24W5/02</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>102/10-16-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>103/06-25-065-25W5/00</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>100/06-12-067-25W5/00</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>100/16-14-068-25W5/00</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>100/05-24-068-25W5/00</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>102/11-15-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>100/14-04-069-25W5/00</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>100/03-27-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>102/07-13-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>100/14-18-066-24W5/00</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>100/12-08-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>100/02-20-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>100/04-07-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>102/12-06-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>102/09-04-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>100/04-13-066-24W5/02</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>100/03-23-065-25W5/00</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>100/03-18-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>100/06-07-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>100/08-36-067-25W5/00</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>100/15-06-068-24W5/00</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>100/04-28-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>100/07-22-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>102/06-27-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>100/04-30-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>100/09-22-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>100/09-13-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>100/04-12-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>100/09-34-065-25W5/00</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>100/10-12-067-25W5/00</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>102/12-26-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>104/16-03-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>100/16-35-065-24W5/00</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>100/08-12-067-25W5/00</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>102/03-06-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>100/01-14-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>102/03-09-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>100/02-05-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>100/01-21-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>102/06-24-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>100/01-10-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>100/08-30-066-24W5/00</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>100/13-23-068-25W5/00</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>102/09-01-067-25W5/00</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>100/08-01-068-25W5/00</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>100/10-19-065-25W5/00</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>100/16-12-067-25W5/00</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>100/01-32-065-25W5/00</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>100/04-35-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>100/06-06-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>102/09-06-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>102/09-12-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>100/16-06-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>102/07-24-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>100/04-17-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>100/13-03-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>100/14-02-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>100/15-12-068-25W5/00</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>100/01-18-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>100/13-30-066-24W5/00</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>100/08-05-067-23W5/00</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>100/03-22-066-25W5/02</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>102/13-06-068-24W5/00</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>100/04-01-067-25W5/00</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>102/14-05-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>100/16-01-068-25W5/00</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>100/03-13-067-25W5/00</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>100/06-24-068-25W5/00</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>100/05-10-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>102/08-10-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>102/06-25-065-25W5/00</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>100/10-02-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>100/09-13-067-25W5/00</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>100/12-06-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>100/15-07-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>100/16-13-067-25W5/00</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>100/05-16-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>100/12-15-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>100/15-33-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>100/12-36-065-24W5/02</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>100/02-23-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>100/06-27-066-25W5/00</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>100/14-07-067-24W5/00</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>100/08-12-066-25W5/00</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Avg Run Life</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>152</v>
-      </c>
-      <c r="C2" t="n">
-        <v>106</v>
-      </c>
-      <c r="D2" t="n">
-        <v>52</v>
+          <t>Pad</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PAD 02-02-066-25W5</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PAD 02-02-066-25W5</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>PAD 02-02-066-25W5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>PAD 16-02-066-25W5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>PAD 02-14-066-25W5</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>PAD 04-18-068-24W5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>PAD 01-24-065-25W5</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>PAD 09-02-066-25W5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>PAD 09-14-066-25W5</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>PAD 16-34-066-25W5</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>PAD 06-26-068-25W5</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>PAD 05-36-066-25W5</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>PAD 01-24-065-25W5</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>PAD 07-35-066-25W5</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>PAD 12-19-066-24W5</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>PAD 05-18-065-24W5</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>PAD 12-10-067-24W5</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>PAD 16-34-066-25W5</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>PAD 06-30-067-24W5</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>PAD 13-09-067-24W5</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>PAD 04-31-065-24W5</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>PAD 06-35-066-25W5</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>PAD 16-08-067-24W5</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>PAD 01-23-068-25W5</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>PAD 05-36-066-25W5</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>PAD 04-18-068-24W5</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>PAD 09-26-066-25W5</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>PAD 06-35-066-25W5</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>PAD 01-23-068-25W5</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>PAD 04-31-065-24W5</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>PAD 04-01-067-25W5 B</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>PAD 04-31-065-24W5</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>PAD 15-34-066-25W5</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>PAD 05-18-065-24W5</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>PAD 15-34-066-25W5</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>PAD 06-26-068-25W5</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>PAD 01-24-065-25W5</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>PAD 12-35-065-25W5</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>PAD 01-23-068-25W5</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>PAD 02-14-066-25W5</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>PAD 11-24-066-24W5</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>PAD 06-30-067-24W5</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>PAD 12-12-066-25W5</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>PAD 04-31-065-24W5</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>PAD 09-02-066-25W5</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>PAD 01-13-068-25W5</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>PAD 15-34-066-25W5</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>PAD 04-01-067-25W5 A</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>PAD 09-02-066-25W5</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>PAD 13-09-067-24W5</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>PAD 12-12-066-25W5</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>PAD 08-08-067-24W5</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>PAD 16-09-067-24W5</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>PAD 16-08-067-24W5</t>
+        </is>
+      </c>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>PAD 12-21-065-25W5</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>PAD 12-12-066-25W5</t>
+        </is>
+      </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t>PAD 04-01-067-24W5</t>
+        </is>
+      </c>
+      <c r="BX2" t="inlineStr">
+        <is>
+          <t>PAD 03-27-065-25W5</t>
+        </is>
+      </c>
+      <c r="BY2" t="inlineStr">
+        <is>
+          <t>PAD 05-36-066-25W5</t>
+        </is>
+      </c>
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr">
+        <is>
+          <t>PAD 09-25-066-24W5</t>
+        </is>
+      </c>
+      <c r="CB2" t="inlineStr">
+        <is>
+          <t>PAD 01-23-068-25W5</t>
+        </is>
+      </c>
+      <c r="CC2" t="inlineStr">
+        <is>
+          <t>PAD 16-08-067-24W5</t>
+        </is>
+      </c>
+      <c r="CD2" t="inlineStr"/>
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t>PAD 09-08-067-23W5</t>
+        </is>
+      </c>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>PAD 05-36-066-25W5</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr">
+        <is>
+          <t>PAD 15-36-065-25W5</t>
+        </is>
+      </c>
+      <c r="CH2" t="inlineStr"/>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t>PAD 04-18-068-24W5</t>
+        </is>
+      </c>
+      <c r="CJ2" t="inlineStr">
+        <is>
+          <t>PAD 15-35-066-25W5</t>
+        </is>
+      </c>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2" t="inlineStr">
+        <is>
+          <t>PAD 10-16-066-25W5</t>
+        </is>
+      </c>
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t>PAD 16-09-067-24W5</t>
+        </is>
+      </c>
+      <c r="CN2" t="inlineStr">
+        <is>
+          <t>PAD 12-12-066-25W5</t>
+        </is>
+      </c>
+      <c r="CO2" t="inlineStr">
+        <is>
+          <t>PAD 06-26-068-25W5</t>
+        </is>
+      </c>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr">
+        <is>
+          <t>PAD 16-08-067-24W5</t>
+        </is>
+      </c>
+      <c r="CR2" t="inlineStr">
+        <is>
+          <t>PAD 10-16-066-25W5</t>
+        </is>
+      </c>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr">
+        <is>
+          <t>PAD 02-14-066-25W5</t>
+        </is>
+      </c>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>PAD 16-25-066-24W5</t>
+        </is>
+      </c>
+      <c r="CW2" t="inlineStr">
+        <is>
+          <t>PAD 01-13-068-25W5</t>
+        </is>
+      </c>
+      <c r="CX2" t="inlineStr">
+        <is>
+          <t>PAD 06-30-067-24W5</t>
+        </is>
+      </c>
+      <c r="CY2" t="inlineStr">
+        <is>
+          <t>PAD 13-09-067-24W5</t>
+        </is>
+      </c>
+      <c r="CZ2" t="inlineStr">
+        <is>
+          <t>PAD 01-13-068-25W5</t>
+        </is>
+      </c>
+      <c r="DA2" t="inlineStr">
+        <is>
+          <t>PAD 09-25-066-24W5</t>
+        </is>
+      </c>
+      <c r="DB2" t="inlineStr">
+        <is>
+          <t>PAD 05-36-066-25W5</t>
+        </is>
+      </c>
+      <c r="DC2" t="inlineStr">
+        <is>
+          <t>PAD 01-24-065-25W5</t>
+        </is>
+      </c>
+      <c r="DD2" t="inlineStr"/>
+      <c r="DE2" t="inlineStr">
+        <is>
+          <t>PAD 11-24-066-24W5</t>
+        </is>
+      </c>
+      <c r="DF2" t="inlineStr">
+        <is>
+          <t>PAD 12-12-066-25W5</t>
+        </is>
+      </c>
+      <c r="DG2" t="inlineStr">
+        <is>
+          <t>PAD 12-35-065-25W5</t>
+        </is>
+      </c>
+      <c r="DH2" t="inlineStr">
+        <is>
+          <t>PAD 12-12-066-25W5</t>
+        </is>
+      </c>
+      <c r="DI2" t="inlineStr">
+        <is>
+          <t>PAD 13-09-067-24W5</t>
+        </is>
+      </c>
+      <c r="DJ2" t="inlineStr">
+        <is>
+          <t>PAD 16-09-067-24W5</t>
+        </is>
+      </c>
+      <c r="DK2" t="inlineStr">
+        <is>
+          <t>PAD 14-24-066-25W5</t>
+        </is>
+      </c>
+      <c r="DL2" t="inlineStr">
+        <is>
+          <t>PAD 06-26-068-25W5</t>
+        </is>
+      </c>
+      <c r="DM2" t="inlineStr">
+        <is>
+          <t>PAD 12-19-066-24W5</t>
+        </is>
+      </c>
+      <c r="DN2" t="inlineStr"/>
+      <c r="DO2" t="inlineStr"/>
+      <c r="DP2" t="inlineStr">
+        <is>
+          <t>PAD 05-36-066-25W5</t>
+        </is>
+      </c>
+      <c r="DQ2" t="inlineStr">
+        <is>
+          <t>PAD 06-26-068-25W5</t>
+        </is>
+      </c>
+      <c r="DR2" t="inlineStr">
+        <is>
+          <t>PAD 09-02-066-25W5</t>
+        </is>
+      </c>
+      <c r="DS2" t="inlineStr">
+        <is>
+          <t>PAD 05-27-066-25W5</t>
+        </is>
+      </c>
+      <c r="DT2" t="inlineStr"/>
+      <c r="DU2" t="inlineStr">
+        <is>
+          <t>PAD 04-31-065-24W5</t>
+        </is>
+      </c>
+      <c r="DV2" t="inlineStr">
+        <is>
+          <t>PAD 14-16-065-25W5</t>
+        </is>
+      </c>
+      <c r="DW2" t="inlineStr"/>
+      <c r="DX2" t="inlineStr">
+        <is>
+          <t>PAD 04-01-067-25W5 A</t>
+        </is>
+      </c>
+      <c r="DY2" t="inlineStr"/>
+      <c r="DZ2" t="inlineStr"/>
+      <c r="EA2" t="inlineStr"/>
+      <c r="EB2" t="inlineStr">
+        <is>
+          <t>PAD 01-24-065-25W5</t>
+        </is>
+      </c>
+      <c r="EC2" t="inlineStr"/>
+      <c r="ED2" t="inlineStr">
+        <is>
+          <t>PAD 08-08-068-24W5</t>
+        </is>
+      </c>
+      <c r="EE2" t="inlineStr">
+        <is>
+          <t>PAD 16-13-066-25W5</t>
+        </is>
+      </c>
+      <c r="EF2" t="inlineStr">
+        <is>
+          <t>PAD 01-23-068-25W5</t>
+        </is>
+      </c>
+      <c r="EG2" t="inlineStr">
+        <is>
+          <t>PAD 05-36-066-25W5</t>
+        </is>
+      </c>
+      <c r="EH2" t="inlineStr">
+        <is>
+          <t>PAD 12-35-065-25W5</t>
+        </is>
+      </c>
+      <c r="EI2" t="inlineStr"/>
+      <c r="EJ2" t="inlineStr"/>
+      <c r="EK2" t="inlineStr"/>
+      <c r="EL2" t="inlineStr"/>
+      <c r="EM2" t="inlineStr"/>
+      <c r="EN2" t="inlineStr">
+        <is>
+          <t>PAD 16-09-067-24W5</t>
+        </is>
+      </c>
+      <c r="EO2" t="inlineStr">
+        <is>
+          <t>PAD 11-32-064-24W5</t>
+        </is>
+      </c>
+      <c r="EP2" t="inlineStr">
+        <is>
+          <t>PAD 12-35-065-25W5</t>
+        </is>
+      </c>
+      <c r="EQ2" t="inlineStr">
+        <is>
+          <t>PAD 01-13-068-25W5</t>
+        </is>
+      </c>
+      <c r="ER2" t="inlineStr">
+        <is>
+          <t>PAD 13-09-067-24W5</t>
+        </is>
+      </c>
+      <c r="ES2" t="inlineStr"/>
+      <c r="ET2" t="inlineStr"/>
+      <c r="EU2" t="inlineStr">
+        <is>
+          <t>PAD 04-18-068-24W5</t>
+        </is>
+      </c>
+      <c r="EV2" t="inlineStr">
+        <is>
+          <t>PAD 01-24-065-25W5</t>
+        </is>
+      </c>
+      <c r="EW2" t="inlineStr">
+        <is>
+          <t>PAD 15-36-065-25W5</t>
+        </is>
+      </c>
+      <c r="EX2" t="inlineStr">
+        <is>
+          <t>PAD 12-10-067-24W5</t>
+        </is>
+      </c>
+      <c r="EY2" t="inlineStr">
+        <is>
+          <t>PAD 05-36-066-25W5</t>
+        </is>
+      </c>
+      <c r="EZ2" t="inlineStr"/>
+      <c r="FA2" t="inlineStr">
+        <is>
+          <t>PAD 04-01-067-24W5</t>
+        </is>
+      </c>
+      <c r="FB2" t="inlineStr">
+        <is>
+          <t>PAD 06-26-068-25W5</t>
+        </is>
+      </c>
+      <c r="FC2" t="inlineStr"/>
+      <c r="FD2" t="inlineStr"/>
+      <c r="FE2" t="inlineStr">
+        <is>
+          <t>PAD 15-34-066-25W5</t>
+        </is>
+      </c>
+      <c r="FF2" t="inlineStr">
+        <is>
+          <t>PAD 05-36-066-25W5</t>
+        </is>
+      </c>
+      <c r="FG2" t="inlineStr">
+        <is>
+          <t>PAD 01-24-065-25W5</t>
+        </is>
+      </c>
+      <c r="FH2" t="inlineStr"/>
+      <c r="FI2" t="inlineStr">
+        <is>
+          <t>PAD 04-31-065-24W5</t>
+        </is>
+      </c>
+      <c r="FJ2" t="inlineStr">
+        <is>
+          <t>PAD 04-13-066-25W5</t>
+        </is>
+      </c>
+      <c r="FK2" t="inlineStr">
+        <is>
+          <t>PAD 06-30-067-24W5</t>
+        </is>
+      </c>
+      <c r="FL2" t="inlineStr">
+        <is>
+          <t>PAD 08-08-067-24W5</t>
+        </is>
+      </c>
+      <c r="FM2" t="inlineStr">
+        <is>
+          <t>PAD 04-31-065-24W5</t>
+        </is>
+      </c>
+      <c r="FN2" t="inlineStr"/>
+      <c r="FO2" t="inlineStr">
+        <is>
+          <t>PAD 01-13-068-25W5</t>
+        </is>
+      </c>
+      <c r="FP2" t="inlineStr">
+        <is>
+          <t>PAD 06-26-068-25W5</t>
+        </is>
+      </c>
+      <c r="FQ2" t="inlineStr">
+        <is>
+          <t>PAD 16-09-067-24W5</t>
+        </is>
+      </c>
+      <c r="FR2" t="inlineStr">
+        <is>
+          <t>PAD 10-34-068-25W5</t>
+        </is>
+      </c>
+      <c r="FS2" t="inlineStr">
+        <is>
+          <t>PAD 06-35-066-25W5</t>
+        </is>
+      </c>
+      <c r="FT2" t="inlineStr"/>
+      <c r="FU2" t="inlineStr"/>
+      <c r="FV2" t="inlineStr"/>
+      <c r="FW2" t="inlineStr"/>
+      <c r="FX2" t="inlineStr"/>
+      <c r="FY2" t="inlineStr">
+        <is>
+          <t>PAD 09-07-067-24W5</t>
+        </is>
+      </c>
+      <c r="FZ2" t="inlineStr">
+        <is>
+          <t>PAD 12-35-065-25W5</t>
+        </is>
+      </c>
+      <c r="GA2" t="inlineStr"/>
+      <c r="GB2" t="inlineStr">
+        <is>
+          <t>PAD 01-24-065-25W5</t>
+        </is>
+      </c>
+      <c r="GC2" t="inlineStr"/>
+      <c r="GD2" t="inlineStr"/>
+      <c r="GE2" t="inlineStr">
+        <is>
+          <t>PAD 06-30-067-24W5</t>
+        </is>
+      </c>
+      <c r="GF2" t="inlineStr"/>
+      <c r="GG2" t="inlineStr"/>
+      <c r="GH2" t="inlineStr">
+        <is>
+          <t>PAD 09-14-066-25W5</t>
+        </is>
+      </c>
+      <c r="GI2" t="inlineStr">
+        <is>
+          <t>PAD 06-35-066-25W5</t>
+        </is>
+      </c>
+      <c r="GJ2" t="inlineStr"/>
+      <c r="GK2" t="inlineStr">
+        <is>
+          <t>PAD 09-14-066-25W5</t>
+        </is>
+      </c>
+      <c r="GL2" t="inlineStr">
+        <is>
+          <t>PAD 14-13-066-25W5</t>
+        </is>
+      </c>
+      <c r="GM2" t="inlineStr"/>
+      <c r="GN2" t="inlineStr">
+        <is>
+          <t>PAD 09-02-066-25W5</t>
+        </is>
+      </c>
+      <c r="GO2" t="inlineStr"/>
+      <c r="GP2" t="inlineStr">
+        <is>
+          <t>PAD 05-36-066-25W5</t>
+        </is>
+      </c>
+      <c r="GQ2" t="inlineStr">
+        <is>
+          <t>PAD 02-14-066-25W5</t>
+        </is>
+      </c>
+      <c r="GR2" t="inlineStr"/>
+      <c r="GS2" t="inlineStr"/>
+      <c r="GT2" t="inlineStr">
+        <is>
+          <t>PAD 06-35-066-25W5</t>
+        </is>
+      </c>
+      <c r="GU2" t="inlineStr"/>
+      <c r="GV2" t="inlineStr">
+        <is>
+          <t>PAD 15-09-067-24W5</t>
+        </is>
+      </c>
+      <c r="GW2" t="inlineStr"/>
+      <c r="GX2" t="inlineStr"/>
+      <c r="GY2" t="inlineStr">
+        <is>
+          <t>PAD 02-14-066-25W5</t>
+        </is>
+      </c>
+      <c r="GZ2" t="inlineStr">
+        <is>
+          <t>PAD 12-10-067-24W5</t>
+        </is>
+      </c>
+      <c r="HA2" t="inlineStr">
+        <is>
+          <t>PAD 13-30-066-24W5</t>
+        </is>
+      </c>
+      <c r="HB2" t="inlineStr">
+        <is>
+          <t>PAD 01-23-068-25W5</t>
+        </is>
+      </c>
+      <c r="HC2" t="inlineStr">
+        <is>
+          <t>PAD 15-34-066-25W5</t>
+        </is>
+      </c>
+      <c r="HD2" t="inlineStr">
+        <is>
+          <t>PAD 01-13-068-25W5</t>
+        </is>
+      </c>
+      <c r="HE2" t="inlineStr">
+        <is>
+          <t>PAD 12-21-065-25W5</t>
+        </is>
+      </c>
+      <c r="HF2" t="inlineStr"/>
+      <c r="HG2" t="inlineStr">
+        <is>
+          <t>PAD 09-33-065-25W5</t>
+        </is>
+      </c>
+      <c r="HH2" t="inlineStr">
+        <is>
+          <t>PAD 15-35-066-25W5</t>
+        </is>
+      </c>
+      <c r="HI2" t="inlineStr">
+        <is>
+          <t>PAD 06-35-066-25W5</t>
+        </is>
+      </c>
+      <c r="HJ2" t="inlineStr">
+        <is>
+          <t>PAD 03-06-067-24W5</t>
+        </is>
+      </c>
+      <c r="HK2" t="inlineStr">
+        <is>
+          <t>PAD 09-02-066-25W5</t>
+        </is>
+      </c>
+      <c r="HL2" t="inlineStr"/>
+      <c r="HM2" t="inlineStr">
+        <is>
+          <t>PAD 02-14-066-25W5</t>
+        </is>
+      </c>
+      <c r="HN2" t="inlineStr"/>
+      <c r="HO2" t="inlineStr">
+        <is>
+          <t>PAD 12-35-065-25W5</t>
+        </is>
+      </c>
+      <c r="HP2" t="inlineStr"/>
+      <c r="HQ2" t="inlineStr">
+        <is>
+          <t>PAD 01-23-068-25W5</t>
+        </is>
+      </c>
+      <c r="HR2" t="inlineStr"/>
+      <c r="HS2" t="inlineStr">
+        <is>
+          <t>PAD 13-30-066-24W5</t>
+        </is>
+      </c>
+      <c r="HT2" t="inlineStr">
+        <is>
+          <t>PAD 09-08-067-23W5</t>
+        </is>
+      </c>
+      <c r="HU2" t="inlineStr">
+        <is>
+          <t>PAD 02-14-066-25W5</t>
+        </is>
+      </c>
+      <c r="HV2" t="inlineStr">
+        <is>
+          <t>PAD 04-18-068-24W5</t>
+        </is>
+      </c>
+      <c r="HW2" t="inlineStr">
+        <is>
+          <t>PAD 04-01-067-25W5 B</t>
+        </is>
+      </c>
+      <c r="HX2" t="inlineStr"/>
+      <c r="HY2" t="inlineStr">
+        <is>
+          <t>PAD 04-18-068-24W5</t>
+        </is>
+      </c>
+      <c r="HZ2" t="inlineStr"/>
+      <c r="IA2" t="inlineStr">
+        <is>
+          <t>PAD 06-26-068-25W5</t>
+        </is>
+      </c>
+      <c r="IB2" t="inlineStr">
+        <is>
+          <t>PAD 08-10-066-25W5</t>
+        </is>
+      </c>
+      <c r="IC2" t="inlineStr">
+        <is>
+          <t>PAD 02-14-066-25W5</t>
+        </is>
+      </c>
+      <c r="ID2" t="inlineStr">
+        <is>
+          <t>PAD 04-31-065-24W5</t>
+        </is>
+      </c>
+      <c r="IE2" t="inlineStr">
+        <is>
+          <t>PAD 12-12-066-25W5</t>
+        </is>
+      </c>
+      <c r="IF2" t="inlineStr"/>
+      <c r="IG2" t="inlineStr"/>
+      <c r="IH2" t="inlineStr"/>
+      <c r="II2" t="inlineStr"/>
+      <c r="IJ2" t="inlineStr"/>
+      <c r="IK2" t="inlineStr"/>
+      <c r="IL2" t="inlineStr">
+        <is>
+          <t>PAD 04-01-067-25W5 B</t>
+        </is>
+      </c>
+      <c r="IM2" t="inlineStr"/>
+      <c r="IN2" t="inlineStr"/>
+      <c r="IO2" t="inlineStr">
+        <is>
+          <t>PAD 15-34-066-25W5</t>
+        </is>
+      </c>
+      <c r="IP2" t="inlineStr"/>
+      <c r="IQ2" t="inlineStr">
+        <is>
+          <t>PAD 15-36-065-25W5</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Days Since Failure</t>
+          <t>Avg Run Life</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>419</v>
+        <v>118</v>
       </c>
       <c r="C3" t="n">
-        <v>373</v>
+        <v>152</v>
       </c>
       <c r="D3" t="n">
-        <v>239</v>
+        <v>52</v>
+      </c>
+      <c r="E3" t="n">
+        <v>880</v>
+      </c>
+      <c r="F3" t="n">
+        <v>218</v>
+      </c>
+      <c r="G3" t="n">
+        <v>93</v>
+      </c>
+      <c r="H3" t="n">
+        <v>207</v>
+      </c>
+      <c r="I3" t="n">
+        <v>381</v>
+      </c>
+      <c r="J3" t="n">
+        <v>142</v>
+      </c>
+      <c r="K3" t="n">
+        <v>303</v>
+      </c>
+      <c r="L3" t="n">
+        <v>390</v>
+      </c>
+      <c r="M3" t="n">
+        <v>45</v>
+      </c>
+      <c r="N3" t="n">
+        <v>321</v>
+      </c>
+      <c r="O3" t="n">
+        <v>136</v>
+      </c>
+      <c r="P3" t="n">
+        <v>347</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>772</v>
+      </c>
+      <c r="R3" t="n">
+        <v>585</v>
+      </c>
+      <c r="S3" t="n">
+        <v>343</v>
+      </c>
+      <c r="T3" t="n">
+        <v>73</v>
+      </c>
+      <c r="U3" t="n">
+        <v>923</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1025</v>
+      </c>
+      <c r="W3" t="n">
+        <v>406</v>
+      </c>
+      <c r="X3" t="n">
+        <v>469</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Cannot calculate average! Only 1 Well Servicing Job</t>
+        </is>
+      </c>
+      <c r="Z3" t="n">
+        <v>288</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>320</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>344</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>505</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>571</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>289</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>107</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>331</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>639</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>308</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>155</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>241</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>637</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>270</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>311</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>221</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>241</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>213</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>137</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>240</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>264</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>61</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>56</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>262</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>288</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>1036</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>386</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>302</v>
+      </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>Cannot calculate average! Only 1 Well Servicing Job</t>
+        </is>
+      </c>
+      <c r="BE3" t="n">
+        <v>326</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>708</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>624</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>127</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>132</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>234</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>357</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>105</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>229</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>358</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>337</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>790</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>336</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>284</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>226</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>274</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>356</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>414</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>427</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>166</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>314</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>540</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>148</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>159</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>343</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>710</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>613</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>243</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>51</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>788</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>87</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>464</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>2456</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>158</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>273</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>632</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>139</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>375</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>1176</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>145</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>672</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>713</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>534</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>289</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>377</v>
+      </c>
+      <c r="CX3" t="inlineStr">
+        <is>
+          <t>Cannot calculate average! There is 0 WS Jobs</t>
+        </is>
+      </c>
+      <c r="CY3" t="n">
+        <v>168</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>113</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>193</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>266</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>99</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>570</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>152</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>286</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>116</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>658</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>329</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>288</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>357</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>100</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>879</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>608</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>470</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>435</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>185</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>1244</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>498</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>850</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>222</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>166</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>922</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>335</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>481</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>640</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>553</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>76</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>873</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>329</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>1034</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>160</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>428</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>86</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>180</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>432</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>918</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>780</v>
+      </c>
+      <c r="EM3" t="inlineStr">
+        <is>
+          <t>Cannot calculate average! Only 1 Well Servicing Job</t>
+        </is>
+      </c>
+      <c r="EN3" t="n">
+        <v>478</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>437</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>185</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>77</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>288</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>572</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>536</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>79</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>39</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>68</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>232</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>322</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>245</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>226</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>98</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>27</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>1182</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>484</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>212</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>337</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>581</v>
+      </c>
+      <c r="FI3" t="inlineStr">
+        <is>
+          <t>Cannot calculate average! There is 0 WS Jobs</t>
+        </is>
+      </c>
+      <c r="FJ3" t="n">
+        <v>627</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>227</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>760</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>1376</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>951</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>136</v>
+      </c>
+      <c r="FP3" t="inlineStr">
+        <is>
+          <t>Cannot calculate average! Only 1 Well Servicing Job</t>
+        </is>
+      </c>
+      <c r="FQ3" t="n">
+        <v>354</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>117</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>164</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>716</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>736</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>315</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>402</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>554</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>164</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>234</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>354</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>77</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>462</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>347</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>229</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>443</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>374</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>157</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>260</v>
+      </c>
+      <c r="GJ3" t="inlineStr">
+        <is>
+          <t>Cannot calculate average! Only 1 Well Servicing Job</t>
+        </is>
+      </c>
+      <c r="GK3" t="n">
+        <v>251</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>536</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>1126</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>160</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>577</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>259</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>225</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>348</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>306</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>291</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>283</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>355</v>
+      </c>
+      <c r="GW3" t="inlineStr">
+        <is>
+          <t>Cannot calculate average! Only 1 Well Servicing Job</t>
+        </is>
+      </c>
+      <c r="GX3" t="n">
+        <v>965</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>914</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>474</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>662</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>76</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>500</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>109</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>243</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>467</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>224</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>543</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>245</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>383</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>405</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>2807</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>191</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>394</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>186</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>1234</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>159</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>386</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>759</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>476</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>136</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>118</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>634</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>243</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>89</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>488</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>201</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>307</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>385</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>509</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>335</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>545</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>524</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>488</v>
+      </c>
+      <c r="II3" t="n">
+        <v>384</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>886</v>
+      </c>
+      <c r="IK3" t="inlineStr">
+        <is>
+          <t>Cannot calculate average! Only 1 Well Servicing Job</t>
+        </is>
+      </c>
+      <c r="IL3" t="n">
+        <v>191</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>351</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>559</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>240</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>749</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Last WRK</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>44076.33333333334</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>44122.41666666666</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>44256.29166666666</v>
+          <t>Days Since Failure</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>374</v>
+      </c>
+      <c r="C4" t="n">
+        <v>420</v>
+      </c>
+      <c r="D4" t="n">
+        <v>240</v>
+      </c>
+      <c r="E4" t="n">
+        <v>606</v>
+      </c>
+      <c r="F4" t="n">
+        <v>247</v>
+      </c>
+      <c r="G4" t="n">
+        <v>65</v>
+      </c>
+      <c r="H4" t="n">
+        <v>58</v>
+      </c>
+      <c r="I4" t="n">
+        <v>291</v>
+      </c>
+      <c r="J4" t="n">
+        <v>96</v>
+      </c>
+      <c r="K4" t="n">
+        <v>29</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3627</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6</v>
+      </c>
+      <c r="N4" t="n">
+        <v>461</v>
+      </c>
+      <c r="O4" t="n">
+        <v>90</v>
+      </c>
+      <c r="P4" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>706</v>
+      </c>
+      <c r="R4" t="n">
+        <v>72</v>
+      </c>
+      <c r="S4" t="n">
+        <v>66</v>
+      </c>
+      <c r="T4" t="n">
+        <v>63</v>
+      </c>
+      <c r="U4" t="n">
+        <v>122</v>
+      </c>
+      <c r="V4" t="n">
+        <v>453</v>
+      </c>
+      <c r="W4" t="n">
+        <v>319</v>
+      </c>
+      <c r="X4" t="n">
+        <v>338</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>97</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>394</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>152</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>490</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>180</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>69</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>694</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>334</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>73</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>103</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1166</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>324</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>352</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>49</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>294</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>708</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>796</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>44</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>328</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>326</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>62</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>125</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>666</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>1074</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>271</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>134</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>370</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>387</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>47</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>120</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>168</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>158</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>293</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>502</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>249</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>719</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>30</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>111</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>469</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>134</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>127</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>342</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>171</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>494</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>159</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>1585</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>265</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>108</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>91</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>364</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>352</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>709</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>185</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>433</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>243</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>94</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>458</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>84</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>58</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>123</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>6</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>792</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>22</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>253</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>72</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>1868</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>503</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>149</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>529</v>
+      </c>
+      <c r="CX4" t="inlineStr">
+        <is>
+          <t>Cannot calculate current run time! There is 0 WS Jobs</t>
+        </is>
+      </c>
+      <c r="CY4" t="n">
+        <v>50</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>43</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>146</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>458</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>7</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>107</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>837</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>76</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>78</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>376</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>50</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>114</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>114</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>29</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>189</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>625</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>682</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>97</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>240</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>610</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>408</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>687</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>148</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>346</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>330</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>328</v>
+      </c>
+      <c r="DY4" t="n">
+        <v>322</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>40</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>627</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>328</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>136</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>144</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>275</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>106</v>
+      </c>
+      <c r="EG4" t="n">
+        <v>44</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>60</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>466</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>361</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>1452</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>275</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>2076</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>155</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>318</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>106</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>43</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>331</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>317</v>
+      </c>
+      <c r="ET4" t="n">
+        <v>459</v>
+      </c>
+      <c r="EU4" t="n">
+        <v>282</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>7</v>
+      </c>
+      <c r="EW4" t="n">
+        <v>83</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>100</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>366</v>
+      </c>
+      <c r="EZ4" t="n">
+        <v>688</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>351</v>
+      </c>
+      <c r="FB4" t="n">
+        <v>6</v>
+      </c>
+      <c r="FC4" t="n">
+        <v>1895</v>
+      </c>
+      <c r="FD4" t="n">
+        <v>666</v>
+      </c>
+      <c r="FE4" t="n">
+        <v>155</v>
+      </c>
+      <c r="FF4" t="n">
+        <v>163</v>
+      </c>
+      <c r="FG4" t="n">
+        <v>296</v>
+      </c>
+      <c r="FH4" t="n">
+        <v>391</v>
+      </c>
+      <c r="FI4" t="inlineStr">
+        <is>
+          <t>Cannot calculate current run time! There is 0 WS Jobs</t>
+        </is>
+      </c>
+      <c r="FJ4" t="n">
+        <v>251</v>
+      </c>
+      <c r="FK4" t="n">
+        <v>626</v>
+      </c>
+      <c r="FL4" t="n">
+        <v>697</v>
+      </c>
+      <c r="FM4" t="n">
+        <v>135</v>
+      </c>
+      <c r="FN4" t="n">
+        <v>429</v>
+      </c>
+      <c r="FO4" t="n">
+        <v>27</v>
+      </c>
+      <c r="FP4" t="n">
+        <v>11</v>
+      </c>
+      <c r="FQ4" t="n">
+        <v>112</v>
+      </c>
+      <c r="FR4" t="n">
+        <v>234</v>
+      </c>
+      <c r="FS4" t="n">
+        <v>23</v>
+      </c>
+      <c r="FT4" t="n">
+        <v>289</v>
+      </c>
+      <c r="FU4" t="n">
+        <v>24</v>
+      </c>
+      <c r="FV4" t="n">
+        <v>695</v>
+      </c>
+      <c r="FW4" t="n">
+        <v>347</v>
+      </c>
+      <c r="FX4" t="n">
+        <v>401</v>
+      </c>
+      <c r="FY4" t="n">
+        <v>55</v>
+      </c>
+      <c r="FZ4" t="n">
+        <v>196</v>
+      </c>
+      <c r="GA4" t="n">
+        <v>47</v>
+      </c>
+      <c r="GB4" t="n">
+        <v>50</v>
+      </c>
+      <c r="GC4" t="n">
+        <v>135</v>
+      </c>
+      <c r="GD4" t="n">
+        <v>139</v>
+      </c>
+      <c r="GE4" t="n">
+        <v>688</v>
+      </c>
+      <c r="GF4" t="n">
+        <v>263</v>
+      </c>
+      <c r="GG4" t="n">
+        <v>169</v>
+      </c>
+      <c r="GH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI4" t="n">
+        <v>391</v>
+      </c>
+      <c r="GJ4" t="n">
+        <v>625</v>
+      </c>
+      <c r="GK4" t="n">
+        <v>154</v>
+      </c>
+      <c r="GL4" t="n">
+        <v>349</v>
+      </c>
+      <c r="GM4" t="n">
+        <v>772</v>
+      </c>
+      <c r="GN4" t="n">
+        <v>252</v>
+      </c>
+      <c r="GO4" t="n">
+        <v>427</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>287</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>181</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>94</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>448</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>134</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>147</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>113</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>1758</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>743</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>182</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>1164</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>71</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>280</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>154</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>43</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>150</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>284</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>92</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>717</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>22</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>69</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>139</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>757</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>28</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>89</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>42</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>321</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>110</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>695</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>748</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1715</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>389</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>8</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>70</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>777</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>140</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>509</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>13</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>171</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>46</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>144</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>314</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>291</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>370</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>367</v>
+      </c>
+      <c r="II4" t="n">
+        <v>246</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>460</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>19</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>865</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>1445</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>27</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>511</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>59</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
+          <t>Last WRK</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>44122.41666666666</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44076.33333333334</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>44256.29166666666</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>43890.52083333334</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>44249.54166666666</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>44431.4375</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>44438.58333333334</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>44205.5</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>44400.33333333334</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>44467.29166666666</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>40869.29166666666</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>44490.4375</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>44035.54166666666</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>44406.54166666666</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>44429.5</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>43790.60416666666</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>44424.5</v>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>44430.29166666666</v>
+      </c>
+      <c r="T5" s="2" t="n">
+        <v>44433.45625</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>44374.4375</v>
+      </c>
+      <c r="V5" s="2" t="n">
+        <v>44043.47916666666</v>
+      </c>
+      <c r="W5" s="2" t="n">
+        <v>44177.29166666666</v>
+      </c>
+      <c r="X5" s="2" t="n">
+        <v>44158.52083333334</v>
+      </c>
+      <c r="Y5" s="2" t="n">
+        <v>44399.33333333334</v>
+      </c>
+      <c r="Z5" s="2" t="n">
+        <v>44470.54166666666</v>
+      </c>
+      <c r="AA5" s="2" t="n">
+        <v>44345.52083333334</v>
+      </c>
+      <c r="AB5" s="2" t="n">
+        <v>44102.47916666666</v>
+      </c>
+      <c r="AC5" s="2" t="n">
+        <v>44344.52083333334</v>
+      </c>
+      <c r="AD5" s="2" t="n">
+        <v>44006.52083333334</v>
+      </c>
+      <c r="AE5" s="2" t="n">
+        <v>44492.3125</v>
+      </c>
+      <c r="AF5" s="2" t="n">
+        <v>44335.29166666666</v>
+      </c>
+      <c r="AG5" s="2" t="n">
+        <v>44316.29166666666</v>
+      </c>
+      <c r="AH5" s="2" t="n">
+        <v>44427.47916666666</v>
+      </c>
+      <c r="AI5" s="2" t="n">
+        <v>43802.47916666666</v>
+      </c>
+      <c r="AJ5" s="2" t="n">
+        <v>44162.54166666666</v>
+      </c>
+      <c r="AK5" s="2" t="n">
+        <v>44423.41666666666</v>
+      </c>
+      <c r="AL5" s="2" t="n">
+        <v>44393.29166666666</v>
+      </c>
+      <c r="AM5" s="2" t="n">
+        <v>43330.29166666666</v>
+      </c>
+      <c r="AN5" s="2" t="n">
+        <v>44346.60416666666</v>
+      </c>
+      <c r="AO5" s="2" t="n">
+        <v>44172.375</v>
+      </c>
+      <c r="AP5" s="2" t="n">
+        <v>44144.47916666666</v>
+      </c>
+      <c r="AQ5" s="2" t="n">
+        <v>44447.45833333334</v>
+      </c>
+      <c r="AR5" s="2" t="n">
+        <v>44482.3125</v>
+      </c>
+      <c r="AS5" s="2" t="n">
+        <v>44202.29166666666</v>
+      </c>
+      <c r="AT5" s="2" t="n">
+        <v>43788.54166666666</v>
+      </c>
+      <c r="AU5" s="2" t="n">
+        <v>43700.29166666666</v>
+      </c>
+      <c r="AV5" s="2" t="n">
+        <v>44452.29166666666</v>
+      </c>
+      <c r="AW5" s="2" t="n">
+        <v>44168.33333333334</v>
+      </c>
+      <c r="AX5" s="2" t="n">
+        <v>44170.20833333334</v>
+      </c>
+      <c r="AY5" s="2" t="n">
+        <v>44434.5625</v>
+      </c>
+      <c r="AZ5" s="2" t="n">
+        <v>44371.5625</v>
+      </c>
+      <c r="BA5" s="2" t="n">
+        <v>43830.33333333334</v>
+      </c>
+      <c r="BB5" s="2" t="n">
+        <v>43422.3125</v>
+      </c>
+      <c r="BC5" s="2" t="n">
+        <v>44225.29166666666</v>
+      </c>
+      <c r="BD5" s="2" t="n">
+        <v>44362.3125</v>
+      </c>
+      <c r="BE5" s="2" t="n">
+        <v>44126.54166666666</v>
+      </c>
+      <c r="BF5" s="2" t="n">
+        <v>44109.5</v>
+      </c>
+      <c r="BG5" s="2" t="n">
+        <v>44449.5</v>
+      </c>
+      <c r="BH5" s="2" t="n">
+        <v>44376.29166666666</v>
+      </c>
+      <c r="BI5" s="2" t="n">
+        <v>44328.5</v>
+      </c>
+      <c r="BJ5" s="2" t="n">
+        <v>44338.5</v>
+      </c>
+      <c r="BK5" s="2" t="n">
+        <v>44203.29166666666</v>
+      </c>
+      <c r="BL5" s="2" t="n">
+        <v>43994.6875</v>
+      </c>
+      <c r="BM5" s="2" t="n">
+        <v>44247.29166666666</v>
+      </c>
+      <c r="BN5" s="2" t="n">
+        <v>43777.5625</v>
+      </c>
+      <c r="BO5" s="2" t="n">
+        <v>44466.50009259259</v>
+      </c>
+      <c r="BP5" s="2" t="n">
+        <v>44415.29166666666</v>
+      </c>
+      <c r="BQ5" s="2" t="n">
+        <v>44385.5</v>
+      </c>
+      <c r="BR5" s="2" t="n">
+        <v>44027.29166666666</v>
+      </c>
+      <c r="BS5" s="2" t="n">
+        <v>44362.47916666666</v>
+      </c>
+      <c r="BT5" s="2" t="n">
+        <v>44369.41666666666</v>
+      </c>
+      <c r="BU5" s="2" t="n">
+        <v>44154.29166666666</v>
+      </c>
+      <c r="BV5" s="2" t="n">
+        <v>44325.33333333334</v>
+      </c>
+      <c r="BW5" s="2" t="n">
+        <v>44002.5</v>
+      </c>
+      <c r="BX5" s="2" t="n">
+        <v>44495.29166666666</v>
+      </c>
+      <c r="BY5" s="2" t="n">
+        <v>44337.29166666666</v>
+      </c>
+      <c r="BZ5" s="2" t="n">
+        <v>42911.50277777778</v>
+      </c>
+      <c r="CA5" s="2" t="n">
+        <v>44231.29166666666</v>
+      </c>
+      <c r="CB5" s="2" t="n">
+        <v>44388.5625</v>
+      </c>
+      <c r="CC5" s="2" t="n">
+        <v>44405.39583333334</v>
+      </c>
+      <c r="CD5" s="2" t="n">
+        <v>44132.29166666666</v>
+      </c>
+      <c r="CE5" s="2" t="n">
+        <v>44144.29166666666</v>
+      </c>
+      <c r="CF5" s="2" t="n">
+        <v>43787.29166666666</v>
+      </c>
+      <c r="CG5" s="2" t="n">
+        <v>44311.54166666666</v>
+      </c>
+      <c r="CH5" s="2" t="n">
+        <v>44063.55277777778</v>
+      </c>
+      <c r="CI5" s="2" t="n">
+        <v>44253.29166666666</v>
+      </c>
+      <c r="CJ5" s="2" t="n">
+        <v>44402.60416666666</v>
+      </c>
+      <c r="CK5" s="2" t="n">
+        <v>44038.45833333334</v>
+      </c>
+      <c r="CL5" s="2" t="n">
+        <v>44412.29166666666</v>
+      </c>
+      <c r="CM5" s="2" t="n">
+        <v>44438.54166666666</v>
+      </c>
+      <c r="CN5" s="2" t="n">
+        <v>44373.47916666666</v>
+      </c>
+      <c r="CO5" s="2" t="n">
+        <v>44490.39583333334</v>
+      </c>
+      <c r="CP5" s="2" t="n">
+        <v>43704.45833333334</v>
+      </c>
+      <c r="CQ5" s="2" t="n">
+        <v>44474.5</v>
+      </c>
+      <c r="CR5" s="2" t="n">
+        <v>44243.29166666666</v>
+      </c>
+      <c r="CS5" s="2" t="n">
+        <v>44424.29166666666</v>
+      </c>
+      <c r="CT5" s="2" t="n">
+        <v>42628.29166666666</v>
+      </c>
+      <c r="CU5" s="2" t="n">
+        <v>43993.52083333334</v>
+      </c>
+      <c r="CV5" s="2" t="n">
+        <v>44347.52083333334</v>
+      </c>
+      <c r="CW5" s="2" t="n">
+        <v>43967.54166666666</v>
+      </c>
+      <c r="CX5" s="2" t="n">
+        <v>44212.33333333334</v>
+      </c>
+      <c r="CY5" s="2" t="n">
+        <v>44446.29166666666</v>
+      </c>
+      <c r="CZ5" s="2" t="n">
+        <v>44453.5</v>
+      </c>
+      <c r="DA5" s="2" t="n">
+        <v>44350.5</v>
+      </c>
+      <c r="DB5" s="2" t="n">
+        <v>44038.29166666666</v>
+      </c>
+      <c r="DC5" s="2" t="n">
+        <v>44489.29166666666</v>
+      </c>
+      <c r="DD5" s="2" t="n">
+        <v>44389.29166666666</v>
+      </c>
+      <c r="DE5" s="2" t="n">
+        <v>43659.29166666666</v>
+      </c>
+      <c r="DF5" s="2" t="n">
+        <v>44420.52083333334</v>
+      </c>
+      <c r="DG5" s="2" t="n">
+        <v>44418.29166666666</v>
+      </c>
+      <c r="DH5" s="2" t="n">
+        <v>44120.29166666666</v>
+      </c>
+      <c r="DI5" s="2" t="n">
+        <v>44446.45833333334</v>
+      </c>
+      <c r="DJ5" s="2" t="n">
+        <v>44382.29166666666</v>
+      </c>
+      <c r="DK5" s="2" t="n">
+        <v>44382.29166666666</v>
+      </c>
+      <c r="DL5" s="2" t="n">
+        <v>44467.5</v>
+      </c>
+      <c r="DM5" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="DN5" s="2" t="n">
+        <v>43871.33333333334</v>
+      </c>
+      <c r="DO5" s="2" t="n">
+        <v>43814.375</v>
+      </c>
+      <c r="DP5" s="2" t="n">
+        <v>44399.29166666666</v>
+      </c>
+      <c r="DQ5" s="2" t="n">
+        <v>44256.35208333333</v>
+      </c>
+      <c r="DR5" s="2" t="n">
+        <v>43886.54166666666</v>
+      </c>
+      <c r="DS5" s="2" t="n">
+        <v>44088.54166666666</v>
+      </c>
+      <c r="DT5" s="2" t="n">
+        <v>43809.5</v>
+      </c>
+      <c r="DU5" s="2" t="n">
+        <v>44348.47916666666</v>
+      </c>
+      <c r="DV5" s="2" t="n">
+        <v>44150.54166666666</v>
+      </c>
+      <c r="DW5" s="2" t="n">
+        <v>44166.29166666666</v>
+      </c>
+      <c r="DX5" s="2" t="n">
+        <v>44168.52083333334</v>
+      </c>
+      <c r="DY5" s="2" t="n">
+        <v>44174.39583333334</v>
+      </c>
+      <c r="DZ5" s="2" t="n">
+        <v>44456.29166666666</v>
+      </c>
+      <c r="EA5" s="2" t="n">
+        <v>43869.52083333334</v>
+      </c>
+      <c r="EB5" s="2" t="n">
+        <v>44168.5</v>
+      </c>
+      <c r="EC5" s="2" t="n">
+        <v>44360.29166666666</v>
+      </c>
+      <c r="ED5" s="2" t="n">
+        <v>44352.29166666666</v>
+      </c>
+      <c r="EE5" s="2" t="n">
+        <v>44221.5</v>
+      </c>
+      <c r="EF5" s="2" t="n">
+        <v>44390.625</v>
+      </c>
+      <c r="EG5" s="2" t="n">
+        <v>44452.29166666666</v>
+      </c>
+      <c r="EH5" s="2" t="n">
+        <v>44436.58333333334</v>
+      </c>
+      <c r="EI5" s="2" t="n">
+        <v>44030.29166666666</v>
+      </c>
+      <c r="EJ5" s="2" t="n">
+        <v>44135.29166666666</v>
+      </c>
+      <c r="EK5" s="2" t="n">
+        <v>43044.60416666666</v>
+      </c>
+      <c r="EL5" s="2" t="n">
+        <v>44221.29166666666</v>
+      </c>
+      <c r="EM5" s="2" t="n">
+        <v>42420.3125</v>
+      </c>
+      <c r="EN5" s="2" t="n">
+        <v>44341.29166666666</v>
+      </c>
+      <c r="EO5" s="2" t="n">
+        <v>44178.29166666666</v>
+      </c>
+      <c r="EP5" s="2" t="n">
+        <v>44390.52083333334</v>
+      </c>
+      <c r="EQ5" s="2" t="n">
+        <v>44453.54166666666</v>
+      </c>
+      <c r="ER5" s="2" t="n">
+        <v>44165.29166666666</v>
+      </c>
+      <c r="ES5" s="2" t="n">
+        <v>44179.54166666666</v>
+      </c>
+      <c r="ET5" s="2" t="n">
+        <v>44037.47916666666</v>
+      </c>
+      <c r="EU5" s="2" t="n">
+        <v>44214.58333333334</v>
+      </c>
+      <c r="EV5" s="2" t="n">
+        <v>44489.58333333334</v>
+      </c>
+      <c r="EW5" s="2" t="n">
+        <v>44413.625</v>
+      </c>
+      <c r="EX5" s="2" t="n">
+        <v>44396.39583333334</v>
+      </c>
+      <c r="EY5" s="2" t="n">
+        <v>44130.54166666666</v>
+      </c>
+      <c r="EZ5" s="2" t="n">
+        <v>43808.54166666666</v>
+      </c>
+      <c r="FA5" s="2" t="n">
+        <v>44145.5</v>
+      </c>
+      <c r="FB5" s="2" t="n">
+        <v>44490.33333333334</v>
+      </c>
+      <c r="FC5" s="2" t="n">
+        <v>42601.4375</v>
+      </c>
+      <c r="FD5" s="2" t="n">
+        <v>43830.33333333334</v>
+      </c>
+      <c r="FE5" s="2" t="n">
+        <v>44341.29166666666</v>
+      </c>
+      <c r="FF5" s="2" t="n">
+        <v>44333.52083333334</v>
+      </c>
+      <c r="FG5" s="2" t="n">
+        <v>44200.29166666666</v>
+      </c>
+      <c r="FH5" s="2" t="n">
+        <v>44105.5</v>
+      </c>
+      <c r="FI5" s="2" t="n">
+        <v>44461.29166666666</v>
+      </c>
+      <c r="FJ5" s="2" t="n">
+        <v>44245.58333333334</v>
+      </c>
+      <c r="FK5" s="2" t="n">
+        <v>43870.33333333334</v>
+      </c>
+      <c r="FL5" s="2" t="n">
+        <v>43799.54166666666</v>
+      </c>
+      <c r="FM5" s="2" t="n">
+        <v>44361.54166666666</v>
+      </c>
+      <c r="FN5" s="2" t="n">
+        <v>44067.54166666666</v>
+      </c>
+      <c r="FO5" s="2" t="n">
+        <v>44469.52083333334</v>
+      </c>
+      <c r="FP5" s="2" t="n">
+        <v>44485.54166666666</v>
+      </c>
+      <c r="FQ5" s="2" t="n">
+        <v>44384.45833333334</v>
+      </c>
+      <c r="FR5" s="2" t="n">
+        <v>44262.32638888889</v>
+      </c>
+      <c r="FS5" s="2" t="n">
+        <v>44473.5</v>
+      </c>
+      <c r="FT5" s="2" t="n">
+        <v>44207.51944444444</v>
+      </c>
+      <c r="FU5" s="2" t="n">
+        <v>44472.5</v>
+      </c>
+      <c r="FV5" s="2" t="n">
+        <v>43801.5</v>
+      </c>
+      <c r="FW5" s="2" t="n">
+        <v>44149.5</v>
+      </c>
+      <c r="FX5" s="2" t="n">
+        <v>44095.29166666666</v>
+      </c>
+      <c r="FY5" s="2" t="n">
+        <v>44441.29166666666</v>
+      </c>
+      <c r="FZ5" s="2" t="n">
+        <v>44300.29166666666</v>
+      </c>
+      <c r="GA5" s="2" t="n">
+        <v>44449.33333333334</v>
+      </c>
+      <c r="GB5" s="2" t="n">
+        <v>44446.45833333334</v>
+      </c>
+      <c r="GC5" s="2" t="n">
+        <v>44361.5</v>
+      </c>
+      <c r="GD5" s="2" t="n">
+        <v>44357.54166666666</v>
+      </c>
+      <c r="GE5" s="2" t="n">
+        <v>43808.52083333334</v>
+      </c>
+      <c r="GF5" s="2" t="n">
+        <v>44233.29166666666</v>
+      </c>
+      <c r="GG5" s="2" t="n">
+        <v>44327.29166666666</v>
+      </c>
+      <c r="GH5" s="2" t="n">
+        <v>44495.3125</v>
+      </c>
+      <c r="GI5" s="2" t="n">
+        <v>44105.375</v>
+      </c>
+      <c r="GJ5" s="2" t="n">
+        <v>43871.33333333334</v>
+      </c>
+      <c r="GK5" s="2" t="n">
+        <v>44342.29166666666</v>
+      </c>
+      <c r="GL5" s="2" t="n">
+        <v>44147.5</v>
+      </c>
+      <c r="GM5" s="2" t="n">
+        <v>43724.52083333334</v>
+      </c>
+      <c r="GN5" s="2" t="n">
+        <v>44244.3125</v>
+      </c>
+      <c r="GO5" s="2" t="n">
+        <v>44069.29166666666</v>
+      </c>
+      <c r="GP5" s="2" t="n">
+        <v>44209.29166666666</v>
+      </c>
+      <c r="GQ5" s="2" t="n">
+        <v>44315.5</v>
+      </c>
+      <c r="GR5" s="2" t="n">
+        <v>44402.29166666666</v>
+      </c>
+      <c r="GS5" s="2" t="n">
+        <v>44048.29166666666</v>
+      </c>
+      <c r="GT5" s="2" t="n">
+        <v>44362.47916666666</v>
+      </c>
+      <c r="GU5" s="2" t="n">
+        <v>44349.5</v>
+      </c>
+      <c r="GV5" s="2" t="n">
+        <v>44383.47916666666</v>
+      </c>
+      <c r="GW5" s="2" t="n">
+        <v>42738.25</v>
+      </c>
+      <c r="GX5" s="2" t="n">
+        <v>43753.35416666666</v>
+      </c>
+      <c r="GY5" s="2" t="n">
+        <v>44314.29166666666</v>
+      </c>
+      <c r="GZ5" s="2" t="n">
+        <v>43332.60416666666</v>
+      </c>
+      <c r="HA5" s="2" t="n">
+        <v>44425.52083333334</v>
+      </c>
+      <c r="HB5" s="2" t="n">
+        <v>44216.52083333334</v>
+      </c>
+      <c r="HC5" s="2" t="n">
+        <v>44342.47916666666</v>
+      </c>
+      <c r="HD5" s="2" t="n">
+        <v>44453.60416666666</v>
+      </c>
+      <c r="HE5" s="2" t="n">
+        <v>44346.33333333334</v>
+      </c>
+      <c r="HF5" s="2" t="n">
+        <v>44212.29166666666</v>
+      </c>
+      <c r="HG5" s="2" t="n">
+        <v>44404.5</v>
+      </c>
+      <c r="HH5" s="2" t="n">
+        <v>43779.58333333334</v>
+      </c>
+      <c r="HI5" s="2" t="n">
+        <v>44474.33333333334</v>
+      </c>
+      <c r="HJ5" s="2" t="n">
+        <v>44427.29166666666</v>
+      </c>
+      <c r="HK5" s="2" t="n">
+        <v>44357.52083333334</v>
+      </c>
+      <c r="HL5" s="2" t="n">
+        <v>43739.29166666666</v>
+      </c>
+      <c r="HM5" s="2" t="n">
+        <v>44468.5</v>
+      </c>
+      <c r="HN5" s="2" t="n">
+        <v>44407.5</v>
+      </c>
+      <c r="HO5" s="2" t="n">
+        <v>44454.29166666666</v>
+      </c>
+      <c r="HP5" s="2" t="n">
+        <v>44175.29166666666</v>
+      </c>
+      <c r="HQ5" s="2" t="n">
+        <v>44386.375</v>
+      </c>
+      <c r="HR5" s="2" t="n">
+        <v>43801.41666666666</v>
+      </c>
+      <c r="HS5" s="2" t="n">
+        <v>43748.54305555556</v>
+      </c>
+      <c r="HT5" s="2" t="n">
+        <v>42781.52083333334</v>
+      </c>
+      <c r="HU5" s="2" t="n">
+        <v>44107.54166666666</v>
+      </c>
+      <c r="HV5" s="2" t="n">
+        <v>44488.3125</v>
+      </c>
+      <c r="HW5" s="2" t="n">
+        <v>44426.45833333334</v>
+      </c>
+      <c r="HX5" s="2" t="n">
+        <v>43719.5</v>
+      </c>
+      <c r="HY5" s="2" t="n">
+        <v>44356.29166666666</v>
+      </c>
+      <c r="HZ5" s="2" t="n">
+        <v>43987.54166666666</v>
+      </c>
+      <c r="IA5" s="2" t="n">
+        <v>44483.54166666666</v>
+      </c>
+      <c r="IB5" s="2" t="n">
+        <v>44325.39583333334</v>
+      </c>
+      <c r="IC5" s="2" t="n">
+        <v>44450.39583333334</v>
+      </c>
+      <c r="ID5" s="2" t="n">
+        <v>44352.5</v>
+      </c>
+      <c r="IE5" s="2" t="n">
+        <v>44182.5</v>
+      </c>
+      <c r="IF5" s="2" t="n">
+        <v>44205.41666666666</v>
+      </c>
+      <c r="IG5" s="2" t="n">
+        <v>44126.58333333334</v>
+      </c>
+      <c r="IH5" s="2" t="n">
+        <v>44129.29166666666</v>
+      </c>
+      <c r="II5" s="2" t="n">
+        <v>44250.5</v>
+      </c>
+      <c r="IJ5" s="2" t="n">
+        <v>44036.47916666666</v>
+      </c>
+      <c r="IK5" s="2" t="n">
+        <v>44477.37592592592</v>
+      </c>
+      <c r="IL5" s="2" t="n">
+        <v>43631.29166666666</v>
+      </c>
+      <c r="IM5" s="2" t="n">
+        <v>43051.41666666666</v>
+      </c>
+      <c r="IN5" s="2" t="n">
+        <v>44469.47916666666</v>
+      </c>
+      <c r="IO5" s="2" t="n">
+        <v>43985.52083333334</v>
+      </c>
+      <c r="IP5" s="2" t="n">
+        <v>44437.29166666666</v>
+      </c>
+      <c r="IQ5" s="2" t="n">
+        <v>44353.47916666666</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
           <t>Num of WS Jobs</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D6" t="n">
+        <v>22</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>16</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12</v>
+      </c>
+      <c r="K6" t="n">
+        <v>12</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7</v>
+      </c>
+      <c r="S6" t="n">
+        <v>11</v>
+      </c>
+      <c r="T6" t="n">
+        <v>18</v>
+      </c>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>4</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
-        <v>22</v>
+      <c r="AG6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>19</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>8</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>13</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>6</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>10</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>8</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>10</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>13</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>7</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>7</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>13</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>10</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>3</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>7</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>4</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>4</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>5</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>6</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>6</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>16</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>3</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>15</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>8</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>13</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>10</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>5</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>7</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>13</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>6</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>3</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>4</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>10</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>8</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>21</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>9</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>11</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>5</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>6</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>6</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>3</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>8</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>9</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>12</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>2</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>4</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>6</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>6</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>8</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>8</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>2</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>7</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>5</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>11</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>13</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>5</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>6</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>8</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>5</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>4</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>5</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>5</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>8</v>
+      </c>
+      <c r="EE6" t="n">
+        <v>3</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>4</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>6</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>8</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>16</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>4</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>3</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>5</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>6</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>6</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>4</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>13</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>8</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>6</v>
+      </c>
+      <c r="ET6" t="n">
+        <v>4</v>
+      </c>
+      <c r="EU6" t="n">
+        <v>16</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>14</v>
+      </c>
+      <c r="EW6" t="n">
+        <v>14</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>16</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>7</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>14</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>7</v>
+      </c>
+      <c r="FB6" t="n">
+        <v>2</v>
+      </c>
+      <c r="FC6" t="n">
+        <v>2</v>
+      </c>
+      <c r="FD6" t="n">
+        <v>3</v>
+      </c>
+      <c r="FE6" t="n">
+        <v>6</v>
+      </c>
+      <c r="FF6" t="n">
+        <v>13</v>
+      </c>
+      <c r="FG6" t="n">
+        <v>2</v>
+      </c>
+      <c r="FH6" t="n">
+        <v>6</v>
+      </c>
+      <c r="FI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ6" t="n">
+        <v>6</v>
+      </c>
+      <c r="FK6" t="n">
+        <v>8</v>
+      </c>
+      <c r="FL6" t="n">
+        <v>3</v>
+      </c>
+      <c r="FM6" t="n">
+        <v>2</v>
+      </c>
+      <c r="FN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="FO6" t="n">
+        <v>7</v>
+      </c>
+      <c r="FP6" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ6" t="n">
+        <v>6</v>
+      </c>
+      <c r="FR6" t="n">
+        <v>4</v>
+      </c>
+      <c r="FS6" t="n">
+        <v>14</v>
+      </c>
+      <c r="FT6" t="n">
+        <v>6</v>
+      </c>
+      <c r="FU6" t="n">
+        <v>6</v>
+      </c>
+      <c r="FV6" t="n">
+        <v>6</v>
+      </c>
+      <c r="FW6" t="n">
+        <v>8</v>
+      </c>
+      <c r="FX6" t="n">
+        <v>6</v>
+      </c>
+      <c r="FY6" t="n">
+        <v>9</v>
+      </c>
+      <c r="FZ6" t="n">
+        <v>3</v>
+      </c>
+      <c r="GA6" t="n">
+        <v>10</v>
+      </c>
+      <c r="GB6" t="n">
+        <v>6</v>
+      </c>
+      <c r="GC6" t="n">
+        <v>7</v>
+      </c>
+      <c r="GD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="GE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="GF6" t="n">
+        <v>8</v>
+      </c>
+      <c r="GG6" t="n">
+        <v>9</v>
+      </c>
+      <c r="GH6" t="n">
+        <v>10</v>
+      </c>
+      <c r="GI6" t="n">
+        <v>9</v>
+      </c>
+      <c r="GJ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK6" t="n">
+        <v>7</v>
+      </c>
+      <c r="GL6" t="n">
+        <v>7</v>
+      </c>
+      <c r="GM6" t="n">
+        <v>3</v>
+      </c>
+      <c r="GN6" t="n">
+        <v>12</v>
+      </c>
+      <c r="GO6" t="n">
+        <v>7</v>
+      </c>
+      <c r="GP6" t="n">
+        <v>12</v>
+      </c>
+      <c r="GQ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="GR6" t="n">
+        <v>10</v>
+      </c>
+      <c r="GS6" t="n">
+        <v>2</v>
+      </c>
+      <c r="GT6" t="n">
+        <v>9</v>
+      </c>
+      <c r="GU6" t="n">
+        <v>12</v>
+      </c>
+      <c r="GV6" t="n">
+        <v>12</v>
+      </c>
+      <c r="GW6" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX6" t="n">
+        <v>4</v>
+      </c>
+      <c r="GY6" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ6" t="n">
+        <v>6</v>
+      </c>
+      <c r="HA6" t="n">
+        <v>7</v>
+      </c>
+      <c r="HB6" t="n">
+        <v>5</v>
+      </c>
+      <c r="HC6" t="n">
+        <v>6</v>
+      </c>
+      <c r="HD6" t="n">
+        <v>9</v>
+      </c>
+      <c r="HE6" t="n">
+        <v>11</v>
+      </c>
+      <c r="HF6" t="n">
+        <v>2</v>
+      </c>
+      <c r="HG6" t="n">
+        <v>12</v>
+      </c>
+      <c r="HH6" t="n">
+        <v>6</v>
+      </c>
+      <c r="HI6" t="n">
+        <v>11</v>
+      </c>
+      <c r="HJ6" t="n">
+        <v>10</v>
+      </c>
+      <c r="HK6" t="n">
+        <v>6</v>
+      </c>
+      <c r="HL6" t="n">
+        <v>2</v>
+      </c>
+      <c r="HM6" t="n">
+        <v>13</v>
+      </c>
+      <c r="HN6" t="n">
+        <v>6</v>
+      </c>
+      <c r="HO6" t="n">
+        <v>4</v>
+      </c>
+      <c r="HP6" t="n">
+        <v>4</v>
+      </c>
+      <c r="HQ6" t="n">
+        <v>4</v>
+      </c>
+      <c r="HR6" t="n">
+        <v>4</v>
+      </c>
+      <c r="HS6" t="n">
+        <v>4</v>
+      </c>
+      <c r="HT6" t="n">
+        <v>4</v>
+      </c>
+      <c r="HU6" t="n">
+        <v>16</v>
+      </c>
+      <c r="HV6" t="n">
+        <v>10</v>
+      </c>
+      <c r="HW6" t="n">
+        <v>7</v>
+      </c>
+      <c r="HX6" t="n">
+        <v>10</v>
+      </c>
+      <c r="HY6" t="n">
+        <v>16</v>
+      </c>
+      <c r="HZ6" t="n">
+        <v>7</v>
+      </c>
+      <c r="IA6" t="n">
+        <v>2</v>
+      </c>
+      <c r="IB6" t="n">
+        <v>14</v>
+      </c>
+      <c r="IC6" t="n">
+        <v>6</v>
+      </c>
+      <c r="ID6" t="n">
+        <v>6</v>
+      </c>
+      <c r="IE6" t="n">
+        <v>8</v>
+      </c>
+      <c r="IF6" t="n">
+        <v>7</v>
+      </c>
+      <c r="IG6" t="n">
+        <v>7</v>
+      </c>
+      <c r="IH6" t="n">
+        <v>4</v>
+      </c>
+      <c r="II6" t="n">
+        <v>11</v>
+      </c>
+      <c r="IJ6" t="n">
+        <v>5</v>
+      </c>
+      <c r="IK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL6" t="n">
+        <v>15</v>
+      </c>
+      <c r="IM6" t="n">
+        <v>8</v>
+      </c>
+      <c r="IN6" t="n">
+        <v>16</v>
+      </c>
+      <c r="IO6" t="n">
+        <v>10</v>
+      </c>
+      <c r="IP6" t="n">
+        <v>6</v>
+      </c>
+      <c r="IQ6" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
